--- a/ClickBasedSelectorActions.xlsx
+++ b/ClickBasedSelectorActions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\TriggerBasedFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C0DC8B-F354-4698-BF2A-234A8B23CA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996323D7-2E21-4889-9B85-30B291FE261D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="-120" windowWidth="27375" windowHeight="16440" xr2:uid="{93F9E108-25AB-40F1-8934-C68321823303}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>selectorSubStringToMatch</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>On hold</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>disabled</t>
   </si>
 </sst>
 </file>
@@ -435,66 +447,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AD04A7-D96A-4BCB-8AEC-254FB24E8F58}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/ClickBasedSelectorActions.xlsx
+++ b/ClickBasedSelectorActions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\TriggerBasedFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996323D7-2E21-4889-9B85-30B291FE261D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490D9C6-7BF5-4491-83D1-FA61E8F94752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="-120" windowWidth="27375" windowHeight="16440" xr2:uid="{93F9E108-25AB-40F1-8934-C68321823303}"/>
+    <workbookView xWindow="2445" yWindow="780" windowWidth="20355" windowHeight="11835" xr2:uid="{93F9E108-25AB-40F1-8934-C68321823303}"/>
   </bookViews>
   <sheets>
     <sheet name="DTAction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>selectorSubStringToMatch</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>disabled</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>TriggerBasedFramework</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>STOP_PROCESS</t>
+  </si>
+  <si>
+    <t>Call active</t>
   </si>
 </sst>
 </file>
@@ -447,107 +462,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AD04A7-D96A-4BCB-8AEC-254FB24E8F58}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:I3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
     </row>
